--- a/ff-calendar-data-sheet.xlsx
+++ b/ff-calendar-data-sheet.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Your name and contact data:</t>
+  </si>
   <si>
     <t xml:space="preserve">Notes</t>
   </si>
@@ -55,7 +58,7 @@
     <t xml:space="preserve">some other notable event, or you may use a short set of chars to remind you (see 'Baptism' example)</t>
   </si>
   <si>
-    <t xml:space="preserve">Name: short set of characters; spaces or separator characters (,/.) enable wrapping to fit a day square, otherwise they may be chopped off</t>
+    <t xml:space="preserve">Name(s): short set of characters; spaces or separator characters (,/.&amp;) enable wrapping to fit a day square, otherwise they may be chopped off</t>
   </si>
   <si>
     <t xml:space="preserve">Notes: not printed on the calendar, but useful for reminders such as: Joe was 32 in 2022 so his birth year was 1990 </t>
@@ -103,7 +106,7 @@
     <t xml:space="preserve">Event</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t xml:space="preserve">Name(s)</t>
   </si>
 </sst>
 </file>
@@ -153,12 +156,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -187,16 +197,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,192 +243,1239 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L89" activeCellId="0" sqref="L89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="8.68"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C14" s="2" t="n">
         <v>1985</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="0" t="n">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>2010</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="0" t="n">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C17" s="2" t="n">
         <v>1998</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
+  <mergeCells count="80">
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="F95:I95"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
